--- a/T2D Results.xlsx
+++ b/T2D Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cilianaaman/Documents/Article/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA387884-DCED-C545-A4D2-46CAB3AFF57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8BE7B7-2F74-194B-886A-6A808DC01318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C105FD38-D992-584D-B51F-79D71746B169}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{C105FD38-D992-584D-B51F-79D71746B169}"/>
   </bookViews>
   <sheets>
     <sheet name="MLR 1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2450" uniqueCount="866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2450" uniqueCount="864">
   <si>
     <t>rsID</t>
   </si>
@@ -2630,12 +2630,6 @@
   </si>
   <si>
     <t>CI Upper UACR</t>
-  </si>
-  <si>
-    <t>rs28490558</t>
-  </si>
-  <si>
-    <t>ANAPC2</t>
   </si>
 </sst>
 </file>
@@ -2720,12 +2714,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2733,8 +2726,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3069,10 +3060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFDF1521-0E4E-9D44-8825-1844F8367FAB}">
-  <dimension ref="A1:K425"/>
+  <dimension ref="A1:J425"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3084,7 +3075,7 @@
     <col min="10" max="10" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3115,9 +3106,8 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -3149,7 +3139,7 @@
         <v>8.3644854456320448E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -3181,7 +3171,7 @@
         <v>3.3834247641805469E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -3213,7 +3203,7 @@
         <v>7.5218431286090031E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -3245,39 +3235,39 @@
         <v>3.3659757272959481E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>864</v>
-      </c>
-      <c r="B6" s="7">
-        <v>9</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>865</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0.24829999999999999</v>
-      </c>
-      <c r="G6" s="7">
-        <v>-2.3578423999999999E-3</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0.60726194</v>
-      </c>
-      <c r="I6" s="7">
-        <v>-3.7194790999999998E-2</v>
-      </c>
-      <c r="J6" s="7">
-        <v>1.4519405628499999E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>0.25090000000000001</v>
+      </c>
+      <c r="G6">
+        <v>5.5211129043342176E-4</v>
+      </c>
+      <c r="H6">
+        <v>0.70054330821047428</v>
+      </c>
+      <c r="I6">
+        <v>-2.2617531464291041E-3</v>
+      </c>
+      <c r="J6">
+        <v>3.3659757272959481E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -3309,7 +3299,7 @@
         <v>6.9683983325035679E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -3341,7 +3331,7 @@
         <v>1.0787869213357709E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -3373,7 +3363,7 @@
         <v>2.3681589759512209E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -3405,7 +3395,7 @@
         <v>4.1465987985046821E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -3437,7 +3427,7 @@
         <v>5.9142301124252101E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -3469,7 +3459,7 @@
         <v>-1.4279493099373321E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -3501,7 +3491,7 @@
         <v>3.857689098762199E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -3533,7 +3523,7 @@
         <v>-3.3175216268097919E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -3565,7 +3555,7 @@
         <v>2.9608711233850308E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -23908,814 +23898,814 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>860</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>861</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>862</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>863</v>
       </c>
-      <c r="O1" s="5"/>
+      <c r="O1" s="4"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="4">
         <v>0.84160000000000001</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>-3.13E-3</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>2.8346E-2</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>-5.9199999999999999E-3</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <v>-3.3E-4</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="4">
         <v>2.3630000000000002E-2</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="4">
         <v>2.2771E-2</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="4">
         <v>3.2929999999999999E-3</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="4">
         <v>4.3965999999999998E-2</v>
       </c>
-      <c r="O2" s="5"/>
+      <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="4">
         <v>0.28820000000000001</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>2.895E-3</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>4.2764999999999997E-2</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="4">
         <v>9.4400000000000004E-5</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <v>5.6959999999999997E-3</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <v>-2.7959999999999999E-2</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="4">
         <v>7.11E-3</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="4">
         <v>-4.8320000000000002E-2</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="4">
         <v>-7.6E-3</v>
       </c>
-      <c r="O3" s="5"/>
+      <c r="O3" s="4"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="4">
         <v>0.41210000000000002</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>4.1349999999999998E-3</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>3.9189999999999997E-3</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>1.3259999999999999E-3</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>6.9449999999999998E-3</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>-2.4330000000000001E-2</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
         <v>1.9886000000000001E-2</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="4">
         <v>-4.4810000000000003E-2</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="4">
         <v>-3.8500000000000001E-3</v>
       </c>
-      <c r="O4" s="5"/>
+      <c r="O4" s="4"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="4">
         <v>0.59089999999999998</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>-5.5399999999999998E-3</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>1.13E-4</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>-8.3499999999999998E-3</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>-2.7299999999999998E-3</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <v>-3.1130000000000001E-2</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <v>2.5959999999999998E-3</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <v>-5.1380000000000002E-2</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="4">
         <v>-1.0869999999999999E-2</v>
       </c>
-      <c r="O5" s="5"/>
+      <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="D6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="4">
         <v>0.49569999999999997</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>3.5019999999999999E-3</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>1.4378999999999999E-2</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>6.9800000000000005E-4</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>6.306E-3</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <v>2.1642000000000002E-2</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="4">
         <v>3.7004000000000002E-2</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="4">
         <v>1.305E-3</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="4">
         <v>4.1980000000000003E-2</v>
       </c>
-      <c r="O6" s="5"/>
+      <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B7" s="5">
-        <v>12</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="4">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="4">
         <v>0.63849999999999996</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>-3.16E-3</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>2.7014E-2</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <v>-5.9699999999999996E-3</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <v>-3.6000000000000002E-4</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="4">
         <v>4.1401E-2</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="4">
         <v>7.25E-5</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="4">
         <v>2.0957E-2</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="4">
         <v>6.1844999999999997E-2</v>
       </c>
-      <c r="O7" s="5"/>
+      <c r="O7" s="4"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>15</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="D8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="4">
         <v>0.71279999999999999</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>4.6210000000000001E-3</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <v>1.2570000000000001E-3</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <v>1.8129999999999999E-3</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="4">
         <v>7.4279999999999997E-3</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="4">
         <v>-2.197E-2</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="4">
         <v>3.5202999999999998E-2</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="4">
         <v>-4.2410000000000003E-2</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="4">
         <v>-1.5200000000000001E-3</v>
       </c>
-      <c r="O8" s="5"/>
+      <c r="O8" s="4"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>7</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="D9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="4">
         <v>0.45179999999999998</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>4.3990000000000001E-3</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <v>2.1159999999999998E-3</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <v>1.5939999999999999E-3</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <v>7.2040000000000003E-3</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="4">
         <v>-2.7060000000000001E-2</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="4">
         <v>9.1109999999999993E-3</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="4">
         <v>-4.7390000000000002E-2</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="4">
         <v>-6.7200000000000003E-3</v>
       </c>
-      <c r="O9" s="5"/>
+      <c r="O9" s="4"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B10" s="5">
-        <v>16</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="4">
+        <v>16</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="5">
+      <c r="D10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="4">
         <v>0.42730000000000001</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>2.8519999999999999E-3</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>4.6926000000000002E-2</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="4">
         <v>3.8800000000000001E-5</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="4">
         <v>5.6639999999999998E-3</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="4">
         <v>-3.7879999999999997E-2</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="4">
         <v>2.5900000000000001E-4</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="4">
         <v>-5.8200000000000002E-2</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="4">
         <v>-1.7559999999999999E-2</v>
       </c>
-      <c r="O10" s="5"/>
+      <c r="O10" s="4"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>14</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="5">
+      <c r="D11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="4">
         <v>0.52380000000000004</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>2.8159999999999999E-3</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>4.9186000000000001E-2</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="4">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <v>5.6210000000000001E-3</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="4">
         <v>-2.92E-2</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="4">
         <v>5.1640000000000002E-3</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="4">
         <v>-4.9660000000000003E-2</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="4">
         <v>-8.7399999999999995E-3</v>
       </c>
-      <c r="O11" s="5"/>
+      <c r="O11" s="4"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>4</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="5">
+      <c r="D12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="4">
         <v>0.42499999999999999</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>-3.0200000000000001E-3</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>3.5052E-2</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <v>-5.8300000000000001E-3</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <v>-2.1000000000000001E-4</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="4">
         <v>-3.4790000000000001E-2</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="4">
         <v>8.8199999999999997E-4</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="4">
         <v>-5.5289999999999999E-2</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="4">
         <v>-1.4290000000000001E-2</v>
       </c>
-      <c r="O12" s="5"/>
+      <c r="O12" s="4"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>1</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="5">
+      <c r="D13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="4">
         <v>0.87990000000000002</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>-4.15E-3</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>3.673E-3</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="4">
         <v>-6.9499999999999996E-3</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <v>-1.3500000000000001E-3</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="4">
         <v>2.0524000000000001E-2</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="4">
         <v>4.7829999999999998E-2</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="4">
         <v>1.9599999999999999E-4</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" s="4">
         <v>4.0850999999999998E-2</v>
       </c>
-      <c r="O13" s="5"/>
+      <c r="O13" s="4"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>11</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="5">
+      <c r="D14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="4">
         <v>0.4037</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <v>4.8310000000000002E-3</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>7.2300000000000001E-4</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <v>2.0300000000000001E-3</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="4">
         <v>7.6309999999999998E-3</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="4">
         <v>-3.406E-2</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="4">
         <v>1.134E-3</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="4">
         <v>-5.457E-2</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="4">
         <v>-1.355E-2</v>
       </c>
-      <c r="O14" s="5"/>
+      <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>1</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="5">
+      <c r="D15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="4">
         <v>0.28499999999999998</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <v>-5.9800000000000001E-3</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="4">
         <v>2.87E-5</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="4">
         <v>-8.7799999999999996E-3</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <v>-3.1800000000000001E-3</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="4">
         <v>2.1642000000000002E-2</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="4">
         <v>3.5317000000000001E-2</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="4">
         <v>1.4890000000000001E-3</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="4">
         <v>4.1794999999999999E-2</v>
       </c>
-      <c r="O15" s="5"/>
+      <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>6</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="5">
+      <c r="D16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="4">
         <v>0.65890000000000004</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <v>-4.3400000000000001E-3</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <v>2.4780000000000002E-3</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="4">
         <v>-7.1500000000000001E-3</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="4">
         <v>-1.5299999999999999E-3</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="4">
         <v>2.2117000000000001E-2</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="4">
         <v>3.4856999999999999E-2</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="4">
         <v>1.573E-3</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16" s="4">
         <v>4.2660999999999998E-2</v>
       </c>
-      <c r="O16" s="5"/>
+      <c r="O16" s="4"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>10</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>675</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="5">
+      <c r="D17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="4">
         <v>0.6159</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <v>4.6430000000000004E-3</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="4">
         <v>1.209E-3</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="4">
         <v>1.8320000000000001E-3</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="4">
         <v>7.4549999999999998E-3</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="4">
         <v>-3.1940000000000003E-2</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="4">
         <v>2.2550000000000001E-3</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="4">
         <v>-5.2440000000000001E-2</v>
       </c>
-      <c r="N17" s="5">
+      <c r="N17" s="4">
         <v>-1.145E-2</v>
       </c>
-      <c r="O17" s="5"/>
+      <c r="O17" s="4"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>680</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>14</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>681</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="5">
+      <c r="D18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="4">
         <v>0.7177</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="4">
         <v>-5.4400000000000004E-3</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="4">
         <v>1.3999999999999999E-4</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="4">
         <v>-8.2500000000000004E-3</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="4">
         <v>-2.64E-3</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="4">
         <v>3.4506000000000002E-2</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="4">
         <v>9.2699999999999998E-4</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="4">
         <v>1.4088E-2</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N18" s="4">
         <v>5.4924000000000001E-2</v>
       </c>
-      <c r="O18" s="5"/>
+      <c r="O18" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
